--- a/caixa.xlsx
+++ b/caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE74FB6-61DC-4159-B6EF-8E6604D7EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB154BD7-6588-4F16-9B7A-3AD9D2D17399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9840" yWindow="870" windowWidth="17625" windowHeight="14715" xr2:uid="{02F58BCD-1DA3-490A-A372-FADC10B8D20F}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>caixa</t>
-  </si>
-  <si>
-    <t>divida</t>
   </si>
 </sst>
 </file>
@@ -393,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273557D-AD95-4F05-939C-092C6E6C3284}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,26 +435,6 @@
         <v>2478657</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>9183178</v>
-      </c>
-      <c r="C3">
-        <v>8249852</v>
-      </c>
-      <c r="D3">
-        <v>6400329</v>
-      </c>
-      <c r="E3">
-        <v>7957150</v>
-      </c>
-      <c r="F3">
-        <v>9485068</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/caixa.xlsx
+++ b/caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB154BD7-6588-4F16-9B7A-3AD9D2D17399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40FC450-A29F-4423-9E44-7BCEC2C15DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="870" windowWidth="17625" windowHeight="14715" xr2:uid="{02F58BCD-1DA3-490A-A372-FADC10B8D20F}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17625" windowHeight="14715" xr2:uid="{02F58BCD-1DA3-490A-A372-FADC10B8D20F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>

--- a/caixa.xlsx
+++ b/caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40FC450-A29F-4423-9E44-7BCEC2C15DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA670D3-33D1-44C8-87B1-B6CF071D5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17625" windowHeight="14715" xr2:uid="{02F58BCD-1DA3-490A-A372-FADC10B8D20F}"/>
+    <workbookView xWindow="8160" yWindow="660" windowWidth="19365" windowHeight="14940" xr2:uid="{02F58BCD-1DA3-490A-A372-FADC10B8D20F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>caixa</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,48 +386,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273557D-AD95-4F05-939C-092C6E6C3284}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2018</v>
+      </c>
       <c r="B1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E1">
-        <v>2021</v>
-      </c>
-      <c r="F1">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1948409</v>
       </c>
       <c r="B2">
-        <v>1948409</v>
+        <v>2941727</v>
       </c>
       <c r="C2">
-        <v>2941727</v>
+        <v>3222768</v>
       </c>
       <c r="D2">
-        <v>3222768</v>
+        <v>3472845</v>
       </c>
       <c r="E2">
-        <v>3472845</v>
-      </c>
-      <c r="F2">
         <v>2478657</v>
       </c>
     </row>
